--- a/Example_advisories.xlsx
+++ b/Example_advisories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BMGF_odisha_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880923A5-87DE-4E4F-9175-678B98C631FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9FB7AF-EFA5-4629-BD31-2DAA0F5B05BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE42323B-4650-4250-B779-13DDF95A30AA}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>Humidity Next Week</t>
   </si>
   <si>
-    <t xml:space="preserve">Crop  </t>
+    <t>Crop Stage</t>
   </si>
   <si>
     <t>Any Cat Event</t>
@@ -74,7 +74,7 @@
     <t>Agro Advisory</t>
   </si>
   <si>
-    <t xml:space="preserve">Vegetative  </t>
+    <t>Vegetative Stage</t>
   </si>
   <si>
     <t>Water stress</t>
@@ -83,7 +83,7 @@
     <t>Irrigate fields regularly to prevent moisture stress. Apply organic mulch to conserve soil moisture.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tillering  </t>
+    <t>Tillering Stage</t>
   </si>
   <si>
     <t>Heavy rainfall</t>
@@ -101,7 +101,7 @@
     <t>Use irrigation during peak afternoon heat. Apply potassium-based fertilizers to enhance stress tolerance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Flowering  </t>
+    <t>Flowering Stage</t>
   </si>
   <si>
     <t>None</t>
@@ -110,7 +110,7 @@
     <t>Monitor crops for signs of pests and diseases. Ensure balanced fertilization for optimal flowering.</t>
   </si>
   <si>
-    <t xml:space="preserve">Harvesting  </t>
+    <t>Harvesting Stage</t>
   </si>
   <si>
     <t>Pest infestation (Stem borer)</t>
@@ -125,7 +125,7 @@
     <t>Stake crops to prevent lodging. Avoid spraying chemicals during high winds.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transplanting  </t>
+    <t>Transplanting Stage</t>
   </si>
   <si>
     <t>Drought conditions</t>
@@ -149,7 +149,7 @@
     <t>Rising humidity</t>
   </si>
   <si>
-    <t>Watch for sheath blight symptoms. Apply fungicide at early  s of infection.</t>
+    <t>Watch for sheath blight symptoms. Apply fungicide at early stages of infection.</t>
   </si>
   <si>
     <t>Continuous rain</t>
@@ -170,7 +170,7 @@
     <t>Use drainage pumps or make channels to remove excess water.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grain Filling  </t>
+    <t>Grain Filling Stage</t>
   </si>
   <si>
     <t>Mild drought conditions</t>
@@ -627,7 +627,7 @@
     <col min="12" max="12" width="54.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.75">
+    <row r="1" spans="1:12" ht="43.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75">
+    <row r="2" spans="1:12" ht="43.5">
       <c r="A2" s="2">
         <v>33</v>
       </c>
@@ -703,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75">
+    <row r="3" spans="1:12" ht="72.599999999999994">
       <c r="A3" s="2">
         <v>28</v>
       </c>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30.75">
+    <row r="5" spans="1:12" ht="72.599999999999994">
       <c r="A5" s="2">
         <v>29</v>
       </c>
@@ -817,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.75">
+    <row r="6" spans="1:12" ht="101.45">
       <c r="A6" s="2">
         <v>31</v>
       </c>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.75">
+    <row r="7" spans="1:12" ht="57.95">
       <c r="A7" s="2">
         <v>27</v>
       </c>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30.75">
+    <row r="8" spans="1:12" ht="72.599999999999994">
       <c r="A8" s="2">
         <v>32</v>
       </c>
@@ -931,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="57.95">
       <c r="A9" s="2">
         <v>29</v>
       </c>
@@ -969,7 +969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75">
+    <row r="10" spans="1:12" ht="87">
       <c r="A10" s="2">
         <v>34</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75">
+    <row r="11" spans="1:12" ht="57.95">
       <c r="A11" s="2">
         <v>28</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75">
+    <row r="12" spans="1:12" ht="72.599999999999994">
       <c r="A12" s="2">
         <v>33</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75">
+    <row r="13" spans="1:12" ht="72.599999999999994">
       <c r="A13" s="2">
         <v>28</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30.75">
+    <row r="15" spans="1:12" ht="43.5">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75">
+    <row r="16" spans="1:12" ht="57.95">
       <c r="A16" s="2">
         <v>28</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75">
+    <row r="18" spans="1:12" ht="29.1">
       <c r="A18" s="2">
         <v>26</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30.75">
+    <row r="19" spans="1:12" ht="43.5">
       <c r="A19" s="2">
         <v>31</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30.75">
+    <row r="20" spans="1:12" ht="72.599999999999994">
       <c r="A20" s="2">
         <v>33</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30.75">
+    <row r="21" spans="1:12" ht="43.5">
       <c r="A21" s="2">
         <v>28</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30.75">
+    <row r="22" spans="1:12" ht="43.5">
       <c r="A22" s="2">
         <v>29</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30.75">
+    <row r="24" spans="1:12" ht="43.5">
       <c r="A24" s="2">
         <v>32</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45.75">
+    <row r="25" spans="1:12" ht="72.599999999999994">
       <c r="A25" s="2">
         <v>30</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30.75">
+    <row r="26" spans="1:12" ht="57.95">
       <c r="A26" s="2">
         <v>33</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30.75">
+    <row r="27" spans="1:12" ht="57.95">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30.75">
+    <row r="29" spans="1:12" ht="43.5">
       <c r="A29" s="2">
         <v>30</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30.75">
+    <row r="30" spans="1:12" ht="57.95">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30.75">
+    <row r="31" spans="1:12" ht="43.5">
       <c r="A31" s="2">
         <v>35</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30.75">
+    <row r="32" spans="1:12" ht="43.5">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30.75">
+    <row r="33" spans="1:12" ht="43.5">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30.75">
+    <row r="34" spans="1:12" ht="57.95">
       <c r="A34" s="2">
         <v>31</v>
       </c>
